--- a/Custom Kernel Development/Testing Performance/Results/TestData.xlsx
+++ b/Custom Kernel Development/Testing Performance/Results/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bca5a8e5478dcf7d/0 TRABAJO/EDINBURGH/DISSERTATION/unikernel-minf/Custom Kernel Development/Testing Performance/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3351" documentId="11_F25DC773A252ABDACC10482D015B74BA5BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2DC380-F907-455D-9159-0A84CDE3A830}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DEC913-98DE-4443-AB9A-6AD5DEC4C8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="405" yWindow="1845" windowWidth="21600" windowHeight="11175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="20520" windowHeight="13120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Graphs" sheetId="2" r:id="rId5"/>
     <sheet name="Percentages" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="118">
   <si>
     <t>HVM</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Boot Scater error</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1686,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1708,6 +1714,81 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$L$25:$L$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5631353078018333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4683954012642917</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.9180187760316159</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7805897928564596</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2905462490103821</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3936424577117772</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9014834168234769</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$L$25:$L$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5631353078018333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4683954012642917</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.9180187760316159</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7805897928564596</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2905462490103821</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3936424577117772</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9014834168234769</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$J$25:$J$31</c:f>
@@ -1841,7 +1922,7 @@
         <c:axId val="2043026368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55"/>
+          <c:max val="60"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2183,6 +2264,80 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>SheetGraphsTables!$L$25:$L$31</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(SheetGraphsTables!$L$25,SheetGraphsTables!$L$29:$L$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5631353078018333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2905462490103821</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3936424577117772</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9014834168234769</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>SheetGraphsTables!$L$25:$L$31</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(SheetGraphsTables!$L$25,SheetGraphsTables!$L$29:$L$31)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5631353078018333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2905462490103821</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3936424577117772</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9014834168234769</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -2588,6 +2743,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$14:$S$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$14:$S$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -2683,6 +2922,89 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$X$14:$X$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8397686721124487</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9920979262049383</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.473481682692467</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0455873918700669</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1326027517066461</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8783163216840952</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$X$14:$X$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8397686721124487</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9920979262049383</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.473481682692467</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0455873918700669</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1326027517066461</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.8783163216840952</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -2781,6 +3103,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$T$14:$T$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6077486032548811</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7428138670090068</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0892303967888894</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5205432819381088</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4315530016843141</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.4184832569105517</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.4683954012642917</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$T$14:$T$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6077486032548811</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7428138670090068</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0892303967888894</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5205432819381088</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4315530016843141</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.4184832569105517</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.4683954012642917</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -3742,6 +4154,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$B$16:$E$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.17051033504383</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0579224924350585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$B$16:$E$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.17051033504383</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0579224924350585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -3813,6 +4285,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$J$16:$M$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4129618222411777</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.51672042731055268</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$J$16:$M$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4129618222411777</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.51672042731055268</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -3884,6 +4416,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$R$16:$U$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5360210523135969</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000808804289333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$R$16:$U$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.5360210523135969</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7000808804289333</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -3955,6 +4547,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$Z$16:$AC$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.9789138435010252</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5203462690380047</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$Z$16:$AC$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.9789138435010252</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5203462690380047</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -4026,6 +4678,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$AH$16:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.94358065073656394</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2541061298094283</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$AH$16:$AK$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.94358065073656394</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2541061298094283</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -4097,6 +4809,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$AP$16:$AS$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.9085625772059773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5081716448441109</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$AP$16:$AS$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.9085625772059773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5081716448441109</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -4170,6 +4942,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$AX$16:$BA$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.6393274366167561</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7819916926148029</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$AX$16:$BA$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.6393274366167561</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7819916926148029</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -4243,6 +5075,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AllData!$BF$16:$BI$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.1938550544646231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3577054523413228</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AllData!$BF$16:$BI$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.1938550544646231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3577054523413228</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>AllData!$B$2:$E$2</c:f>
@@ -4358,7 +5250,6 @@
         <c:axId val="1615519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4603,6 +5494,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$B$38:$B$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$B$38:$B$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -4698,6 +5673,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$C$38:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6170652429633066</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3095175108073411</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6155417048160632</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86591634186629796</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5207216853995578</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.86038912385294875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$C$38:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6170652429633066</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3095175108073411</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6155417048160632</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86591634186629796</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5207216853995578</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.86038912385294875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -4796,6 +5855,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$D$38:$D$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7230104867794958</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5252475126212843</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4324576049748572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1447937575901186</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8064142800219471</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$D$38:$D$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7230104867794958</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5252475126212843</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.4324576049748572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1447937575901186</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8064142800219471</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -4894,6 +6037,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$E$38:$E$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.682169564712322</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3748497028466677</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.3848197733138869</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0086047892299788</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$E$38:$E$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.682169564712322</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3748497028466677</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.3848197733138869</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0086047892299788</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$A$14:$A$21</c:f>
@@ -5033,7 +6260,6 @@
         <c:axId val="138552848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="23"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5226,7 +6452,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Time to Boot Including Xen - HVM &amp; PVH</a:t>
+              <a:t> Time to Boot - Including Xen - HVM &amp; PVH</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" b="1">
               <a:solidFill>
@@ -5293,6 +6519,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$14:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$14:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5153230408836231</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5382,6 +6686,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$15:$Y$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$15:$Y$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.3357342965991081</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5471,6 +6853,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$16:$Y$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6077486032548811</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.4994123665998975</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8397686721124487</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$16:$Y$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.888615748225257</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6077486032548811</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.4994123665998975</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8397686721124487</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5560,6 +7020,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$17:$Y$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7428138670090068</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8352947169743947</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2480948924348008</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9920979262049383</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2846443924602355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$17:$Y$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>3.0793140469916414</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7428138670090068</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8352947169743947</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2480948924348008</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9920979262049383</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2846443924602355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5649,6 +7187,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$18:$Y$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0892303967888894</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.365153581641211</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9492650511765408</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4502798093308842</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.473481682692467</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.2113131551316156</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$18:$Y$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.6120920734154782</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0892303967888894</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.365153581641211</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9492650511765408</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4502798093308842</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.473481682692467</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.2113131551316156</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5738,6 +7354,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5205432819381088</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.7780809482426019</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5951964173149675</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4832688966868535</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0455873918700669</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6470437038480341</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.4680255266102726</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5205432819381088</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.7780809482426019</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5951964173149675</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4832688966868535</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.0455873918700669</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6470437038480341</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5829,6 +7523,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4315530016843141</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.9232849528743206</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6937798722241575</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0285774301993111</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.1326027517066461</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8241175452645577</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>3.617725267500413</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4315530016843141</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.9232849528743206</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6937798722241575</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0285774301993111</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.1326027517066461</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8241175452645577</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -5920,6 +7692,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4184832569105517</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.6882796804255555</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8841178307101725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0336440988105391</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8783163216840952</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.677220750063761</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$S$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.9882524621888704</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.4184832569105517</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.6882796804255555</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8841178307101725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0336440988105391</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8783163216840952</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.677220750063761</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>SheetGraphsTables!$B$13:$H$13</c:f>
@@ -6053,7 +7903,7 @@
         <c:axId val="1936067583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55"/>
+          <c:max val="60"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8837,6 +10687,75 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>RAM!$E$3:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>RAM!$E$3:$E$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>RAM!$A$3:$A$8</c:f>
@@ -9386,9 +11305,91 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$B$38:$B$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$B$38:$B$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>1.0858074312592365</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75746287037716087</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36324922573902335</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.67964042780805334</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.54895354994753365</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0096135124117733</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.80892589964168393</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0281104566684987</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>SheetGraphsTables!$A$27:$A$34</c:f>
@@ -9500,9 +11501,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$C$40:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.6170652429633066</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3095175108073411</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6155417048160632</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.86591634186629796</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5207216853995578</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86038912385294875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$C$40:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.6170652429633066</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3095175108073411</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6155417048160632</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.86591634186629796</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5207216853995578</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86038912385294875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>SheetGraphsTables!$A$27:$A$34</c:f>
@@ -9617,9 +11688,73 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$D$41:$D$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.7230104867794958</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5252475126212843</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4324576049748572</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1447937575901186</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8064142800219471</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$D$41:$D$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.7230104867794958</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5252475126212843</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.4324576049748572</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1447937575901186</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8064142800219471</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>SheetGraphsTables!$A$27:$A$34</c:f>
@@ -9731,9 +11866,67 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$E$42:$E$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.682169564712322</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3748497028466677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3848197733138869</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0086047892299788</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>SheetGraphsTables!$E$42:$E$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.682169564712322</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3748497028466677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3848197733138869</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0086047892299788</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>SheetGraphsTables!$A$27:$A$34</c:f>
@@ -9796,9 +11989,8 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -16838,15 +19030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>588310</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>100292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>133353</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>169212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16861,8 +19053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6648451" y="4181474"/>
-          <a:ext cx="6286502" cy="3848101"/>
+          <a:off x="6656088" y="3952625"/>
+          <a:ext cx="6255457" cy="3695784"/>
           <a:chOff x="6657110" y="4181474"/>
           <a:chExt cx="6296027" cy="3848101"/>
         </a:xfrm>
@@ -16903,7 +19095,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12442308" y="7210425"/>
+            <a:off x="12442308" y="7162681"/>
             <a:ext cx="499952" cy="238125"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -17191,7 +19383,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9985546" y="6169571"/>
+            <a:off x="10701333" y="6229603"/>
             <a:ext cx="762488" cy="149586"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -17629,10 +19821,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17898,13 +20086,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797C8703-6E4C-4FA3-BF33-D2AAB020BB4C}">
   <dimension ref="A1:BN147"/>
   <sheetViews>
-    <sheetView topLeftCell="AH115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW147" sqref="AW147"/>
+    <sheetView topLeftCell="AR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ52" sqref="AJ52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17978,7 +20166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18152,7 +20340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -18334,7 +20522,7 @@
         <v>509.59000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -18516,7 +20704,7 @@
         <v>125.33</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -18698,7 +20886,7 @@
         <v>146.22999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -18880,7 +21068,7 @@
         <v>151.26999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -19062,7 +21250,7 @@
         <v>132.97</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -19244,7 +21432,7 @@
         <v>130.44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -19426,7 +21614,7 @@
         <v>145.23999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -19608,7 +21796,7 @@
         <v>150.85999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -19790,7 +21978,7 @@
         <v>146.66999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -19972,7 +22160,7 @@
         <v>152.47000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -20190,7 +22378,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -20408,7 +22596,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -20626,7 +22814,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -20844,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -20918,7 +23106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -21088,7 +23276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -21268,7 +23456,7 @@
         <v>453.78000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -21448,7 +23636,7 @@
         <v>197.72000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -21628,7 +23816,7 @@
         <v>173.7</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -21808,7 +23996,7 @@
         <v>189.89</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -21988,7 +24176,7 @@
         <v>197.38</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -22168,7 +24356,7 @@
         <v>187.07</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -22348,7 +24536,7 @@
         <v>194.41</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -22528,7 +24716,7 @@
         <v>188.97000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>9</v>
       </c>
@@ -22708,7 +24896,7 @@
         <v>197.06</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>10</v>
       </c>
@@ -22888,7 +25076,7 @@
         <v>192.31</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -23094,7 +25282,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -23300,7 +25488,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -23506,7 +25694,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -23712,7 +25900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -23786,7 +25974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -23956,7 +26144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -24135,7 +26323,7 @@
         <v>422.45</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -24314,7 +26502,7 @@
         <v>166.53</v>
       </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -24493,7 +26681,7 @@
         <v>165.69</v>
       </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -24672,7 +26860,7 @@
         <v>167.53</v>
       </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -24851,7 +27039,7 @@
         <v>188.38</v>
       </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>6</v>
       </c>
@@ -25030,7 +27218,7 @@
         <v>182.55</v>
       </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>7</v>
       </c>
@@ -25209,7 +27397,7 @@
         <v>168.79</v>
       </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -25388,7 +27576,7 @@
         <v>201.98</v>
       </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>9</v>
       </c>
@@ -25567,7 +27755,7 @@
         <v>213.38000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>10</v>
       </c>
@@ -25746,7 +27934,7 @@
         <v>201.28</v>
       </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -25946,7 +28134,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
@@ -26146,7 +28334,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -26346,7 +28534,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
@@ -26546,7 +28734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -26620,7 +28808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -26790,7 +28978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -26968,7 +29156,7 @@
         <v>340.17</v>
       </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -27146,7 +29334,7 @@
         <v>209.67</v>
       </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>3</v>
       </c>
@@ -27324,7 +29512,7 @@
         <v>215.52</v>
       </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>4</v>
       </c>
@@ -27502,7 +29690,7 @@
         <v>204.04999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -27680,7 +29868,7 @@
         <v>203.97000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>6</v>
       </c>
@@ -27858,7 +30046,7 @@
         <v>200.96999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>7</v>
       </c>
@@ -28036,7 +30224,7 @@
         <v>203.42000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>8</v>
       </c>
@@ -28214,7 +30402,7 @@
         <v>210.13</v>
       </c>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>9</v>
       </c>
@@ -28392,7 +30580,7 @@
         <v>211.46000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>10</v>
       </c>
@@ -28570,7 +30758,7 @@
         <v>207.06</v>
       </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>5</v>
       </c>
@@ -28764,7 +30952,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
@@ -28958,7 +31146,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -29152,7 +31340,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>8</v>
       </c>
@@ -29346,7 +31534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -29420,7 +31608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -29590,7 +31778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -29770,7 +31958,7 @@
         <v>424.89</v>
       </c>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -29950,7 +32138,7 @@
         <v>178.89000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -30130,7 +32318,7 @@
         <v>178.73000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>4</v>
       </c>
@@ -30310,7 +32498,7 @@
         <v>168.87</v>
       </c>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>5</v>
       </c>
@@ -30490,7 +32678,7 @@
         <v>175.96999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -30670,7 +32858,7 @@
         <v>162.33000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>7</v>
       </c>
@@ -30850,7 +33038,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>8</v>
       </c>
@@ -31030,7 +33218,7 @@
         <v>175.98999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>9</v>
       </c>
@@ -31210,7 +33398,7 @@
         <v>183.34</v>
       </c>
     </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>10</v>
       </c>
@@ -31390,7 +33578,7 @@
         <v>180.06999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
@@ -31590,7 +33778,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>6</v>
       </c>
@@ -31790,7 +33978,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
@@ -31990,7 +34178,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
@@ -32190,7 +34378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -32264,7 +34452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -32434,7 +34622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -32614,7 +34802,7 @@
         <v>433.40999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>2</v>
       </c>
@@ -32794,7 +34982,7 @@
         <v>168.54999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -32974,7 +35162,7 @@
         <v>154.41999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>4</v>
       </c>
@@ -33154,7 +35342,7 @@
         <v>183.72</v>
       </c>
     </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>5</v>
       </c>
@@ -33334,7 +35522,7 @@
         <v>191.6</v>
       </c>
     </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -33514,7 +35702,7 @@
         <v>158.12</v>
       </c>
     </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>7</v>
       </c>
@@ -33694,7 +35882,7 @@
         <v>156.78</v>
       </c>
     </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>8</v>
       </c>
@@ -33874,7 +36062,7 @@
         <v>182.84</v>
       </c>
     </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>9</v>
       </c>
@@ -34054,7 +36242,7 @@
         <v>165.22</v>
       </c>
     </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>10</v>
       </c>
@@ -34234,7 +36422,7 @@
         <v>154.09</v>
       </c>
     </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
@@ -34434,7 +36622,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>6</v>
       </c>
@@ -34634,7 +36822,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
@@ -34834,7 +37022,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="106" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>8</v>
       </c>
@@ -35034,7 +37222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -35108,7 +37296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:65" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:65" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -35278,7 +37466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -35458,7 +37646,7 @@
         <v>384.46000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>2</v>
       </c>
@@ -35638,7 +37826,7 @@
         <v>108.39999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -35818,7 +38006,7 @@
         <v>134.01</v>
       </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>4</v>
       </c>
@@ -35998,7 +38186,7 @@
         <v>128.03</v>
       </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>5</v>
       </c>
@@ -36178,7 +38366,7 @@
         <v>130.24</v>
       </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>6</v>
       </c>
@@ -36358,7 +38546,7 @@
         <v>122.80999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>7</v>
       </c>
@@ -36538,7 +38726,7 @@
         <v>121.38000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>8</v>
       </c>
@@ -36718,7 +38906,7 @@
         <v>140.04</v>
       </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>9</v>
       </c>
@@ -36898,7 +39086,7 @@
         <v>118.99000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>10</v>
       </c>
@@ -37078,7 +39266,7 @@
         <v>134.28</v>
       </c>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
@@ -37278,7 +39466,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>6</v>
       </c>
@@ -37478,7 +39666,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>7</v>
       </c>
@@ -37678,7 +39866,7 @@
         <v>1024.04</v>
       </c>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>8</v>
       </c>
@@ -37889,7 +40077,7 @@
         <v>27410.82</v>
       </c>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
       <c r="BL125" t="s">
         <v>103</v>
       </c>
@@ -37902,7 +40090,7 @@
         <v>456.84699999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
       <c r="BL126" t="s">
         <v>104</v>
       </c>
@@ -37915,7 +40103,7 @@
         <v>7.614116666666666</v>
       </c>
     </row>
-    <row r="130" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="130" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BE130" t="s">
         <v>105</v>
       </c>
@@ -37923,7 +40111,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="131" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="131" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BE131" t="s">
         <v>106</v>
       </c>
@@ -37938,7 +40126,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="132" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="132" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BE132" t="s">
         <v>107</v>
       </c>
@@ -37953,7 +40141,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="133" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="133" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BG133" t="s">
         <v>34</v>
       </c>
@@ -37965,7 +40153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="134" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BH134">
         <f>BH133/60</f>
         <v>504</v>
@@ -37974,7 +40162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="135" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BH135">
         <f>BH134/60</f>
         <v>8.4</v>
@@ -37987,7 +40175,7 @@
         <v>16.014116666666666</v>
       </c>
     </row>
-    <row r="138" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="138" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BD138" t="s">
         <v>112</v>
       </c>
@@ -37995,7 +40183,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="139" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="139" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BD139" t="s">
         <v>111</v>
       </c>
@@ -38003,7 +40191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="140" spans="49:63" x14ac:dyDescent="0.35">
       <c r="BD140" t="s">
         <v>113</v>
       </c>
@@ -38011,7 +40199,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="141" spans="49:63" x14ac:dyDescent="0.35">
       <c r="AW141">
         <v>20</v>
       </c>
@@ -38023,7 +40211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="142" spans="49:63" x14ac:dyDescent="0.35">
       <c r="AW142">
         <v>30</v>
       </c>
@@ -38032,12 +40220,12 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="143" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="143" spans="49:63" x14ac:dyDescent="0.35">
       <c r="AW143">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="49:63" x14ac:dyDescent="0.25">
+    <row r="144" spans="49:63" x14ac:dyDescent="0.35">
       <c r="AW144">
         <v>2</v>
       </c>
@@ -38048,7 +40236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="49:58" x14ac:dyDescent="0.25">
+    <row r="145" spans="49:58" x14ac:dyDescent="0.35">
       <c r="AW145">
         <v>35</v>
       </c>
@@ -38063,7 +40251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="49:58" x14ac:dyDescent="0.25">
+    <row r="146" spans="49:58" x14ac:dyDescent="0.35">
       <c r="AW146">
         <v>10</v>
       </c>
@@ -38075,7 +40263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="49:58" x14ac:dyDescent="0.25">
+    <row r="147" spans="49:58" x14ac:dyDescent="0.35">
       <c r="AW147">
         <f>SUM(AW141:AW146)</f>
         <v>105</v>
@@ -38105,14 +40293,14 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="20" max="20" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -38135,7 +40323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -38164,7 +40352,7 @@
         <v>12.732392000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>1</f>
         <v>1</v>
@@ -38176,7 +40364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -38185,7 +40373,7 @@
         <v>7180288</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A52" si="0">A4+1</f>
         <v>3</v>
@@ -38194,7 +40382,7 @@
         <v>6523824</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -38203,7 +40391,7 @@
         <v>6367280</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -38212,7 +40400,7 @@
         <v>6213104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -38221,7 +40409,7 @@
         <v>6213104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -38230,7 +40418,7 @@
         <v>5842608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -38239,7 +40427,7 @@
         <v>5842608</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -38248,7 +40436,7 @@
         <v>5801968</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -38257,7 +40445,7 @@
         <v>5484720</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -38266,7 +40454,7 @@
         <v>4984876</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -38275,7 +40463,7 @@
         <v>5482448</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -38284,7 +40472,7 @@
         <v>5478864</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -38293,7 +40481,7 @@
         <v>5425904</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -38302,7 +40490,7 @@
         <v>4152144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -38311,7 +40499,7 @@
         <v>4146096</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -38320,7 +40508,7 @@
         <v>4146096</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -38329,7 +40517,7 @@
         <v>4146160</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -38338,7 +40526,7 @@
         <v>4125104</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -38347,7 +40535,7 @@
         <v>4123696</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -38356,7 +40544,7 @@
         <v>3977008</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -38365,7 +40553,7 @@
         <v>3960416</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -38383,7 +40571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -38401,7 +40589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -38419,7 +40607,7 @@
         <v>-0.59289999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -38437,7 +40625,7 @@
         <v>-0.56520000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -38455,7 +40643,7 @@
         <v>-0.74239999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -38473,7 +40661,7 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -38491,7 +40679,7 @@
         <v>-0.73699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -38500,7 +40688,7 @@
         <v>3801472</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -38509,7 +40697,7 @@
         <v>3791552</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>A33+1</f>
         <v>32</v>
@@ -38518,7 +40706,7 @@
         <v>3724896</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -38527,7 +40715,7 @@
         <v>3504576</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -38536,7 +40724,7 @@
         <v>3476576</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -38545,7 +40733,7 @@
         <v>3379616</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -38554,7 +40742,7 @@
         <v>4916512</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -38563,7 +40751,7 @@
         <v>3377280</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -38572,7 +40760,7 @@
         <v>3375232</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -38581,7 +40769,7 @@
         <v>3368896</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -38590,7 +40778,7 @@
         <v>3375232</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -38599,7 +40787,7 @@
         <v>3372096</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -38608,7 +40796,7 @@
         <v>3371712</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -38617,7 +40805,7 @@
         <v>3365760</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -38626,7 +40814,7 @@
         <v>3358560</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>A46+1</f>
         <v>45</v>
@@ -38635,7 +40823,7 @@
         <v>3365696</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -38644,7 +40832,7 @@
         <v>3353312</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -38653,7 +40841,7 @@
         <v>3348016</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -38662,7 +40850,7 @@
         <v>3349168</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>A50+1</f>
         <v>49</v>
@@ -38671,7 +40859,7 @@
         <v>3379184</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -38692,21 +40880,21 @@
   <dimension ref="A2:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -38716,11 +40904,14 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -38734,11 +40925,14 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -38753,10 +40947,13 @@
         <v>55</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>92.04</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -38770,8 +40967,11 @@
       <c r="D5" t="s">
         <v>55</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -38785,8 +40985,11 @@
       <c r="D6" t="s">
         <v>55</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -38800,6 +41003,9 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" s="16" t="s">
         <v>87</v>
       </c>
@@ -38810,7 +41016,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -38824,6 +41030,9 @@
       <c r="D8" t="s">
         <v>55</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8" t="s">
         <v>82</v>
       </c>
@@ -38834,7 +41043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>94</v>
       </c>
@@ -38845,7 +41054,7 @@
         <v>-0.54210000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -38859,7 +41068,7 @@
         <v>-0.71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -38879,7 +41088,7 @@
         <v>-0.76480000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -38902,7 +41111,7 @@
         <v>-0.55379999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>89</v>
       </c>
@@ -38913,7 +41122,7 @@
         <v>-0.5857</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -38936,7 +41145,7 @@
         <v>-0.55379999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -38947,7 +41156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -38961,7 +41170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -38975,7 +41184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -38989,7 +41198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -39003,7 +41212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>72</v>
       </c>
@@ -39014,7 +41223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -39028,7 +41237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -39042,7 +41251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -39053,7 +41262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -39064,7 +41273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -39075,7 +41284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -39086,7 +41295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -39100,7 +41309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>72</v>
       </c>
@@ -39111,7 +41320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -39125,7 +41334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -39136,7 +41345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -39147,7 +41356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -39161,7 +41370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>24</v>
       </c>
@@ -39175,7 +41384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -39189,7 +41398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -39200,7 +41409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -39214,7 +41423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -39228,7 +41437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -39242,7 +41451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -39256,7 +41465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -39270,7 +41479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -39284,7 +41493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>88</v>
       </c>
@@ -39298,7 +41507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>72</v>
       </c>
@@ -39309,7 +41518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -39323,7 +41532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -39337,7 +41546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -39351,7 +41560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -39365,7 +41574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -39379,7 +41588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>89</v>
       </c>
@@ -39393,7 +41602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>72</v>
       </c>
@@ -39404,7 +41613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -39418,7 +41627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -39429,7 +41638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -39443,7 +41652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -39457,7 +41666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>91</v>
       </c>
@@ -39480,20 +41689,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0A5072-0307-4FF0-ACBD-0C91A382AA41}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>58</v>
       </c>
@@ -39507,7 +41716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>87</v>
       </c>
@@ -39544,7 +41753,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>90</v>
       </c>
@@ -39581,7 +41790,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>190</v>
       </c>
@@ -39618,7 +41827,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>300</v>
       </c>
@@ -39655,7 +41864,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>370</v>
       </c>
@@ -39692,7 +41901,7 @@
         <v>19.077777777777779</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>400</v>
       </c>
@@ -39729,7 +41938,7 @@
         <v>19.388888888888893</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>500</v>
       </c>
@@ -39766,7 +41975,7 @@
         <v>21.652222222222221</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -39803,7 +42012,7 @@
         <v>22.164444444444449</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -39824,12 +42033,12 @@
         <v>20.570833333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -39851,8 +42060,29 @@
       <c r="H13" t="s">
         <v>61</v>
       </c>
+      <c r="S13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -39908,8 +42138,64 @@
       <c r="P14">
         <v>103</v>
       </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" cm="1">
+        <f t="array" aca="1" ref="S14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AA14)</f>
+        <v>2.5153230408836231</v>
+      </c>
+      <c r="T14" t="str" cm="1">
+        <f t="array" aca="1" ref="T14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AB14)</f>
+        <v>NA</v>
+      </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" aca="1" ref="U14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="V14" t="str" cm="1">
+        <f t="array" aca="1" ref="V14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="W14" t="str" cm="1">
+        <f t="array" aca="1" ref="W14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AE14)</f>
+        <v>NA</v>
+      </c>
+      <c r="X14" t="str" cm="1">
+        <f t="array" aca="1" ref="X14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AF14)</f>
+        <v>NA</v>
+      </c>
+      <c r="Y14" t="str" cm="1">
+        <f t="array" aca="1" ref="Y14" ca="1">INDIRECT("AllData!"&amp;$I14&amp;AG14)</f>
+        <v>NA</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14">
+        <v>16</v>
+      </c>
+      <c r="AB14">
+        <v>34</v>
+      </c>
+      <c r="AC14">
+        <f>49+3</f>
+        <v>52</v>
+      </c>
+      <c r="AD14">
+        <v>70</v>
+      </c>
+      <c r="AE14">
+        <v>88</v>
+      </c>
+      <c r="AF14">
+        <v>124</v>
+      </c>
+      <c r="AG14">
+        <v>106</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -39965,8 +42251,64 @@
       <c r="P15">
         <v>103</v>
       </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" cm="1">
+        <f t="array" aca="1" ref="S15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AA15)</f>
+        <v>1.3357342965991081</v>
+      </c>
+      <c r="T15" t="str" cm="1">
+        <f t="array" aca="1" ref="T15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AB15)</f>
+        <v>NA</v>
+      </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" aca="1" ref="U15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AC15)</f>
+        <v>NA</v>
+      </c>
+      <c r="V15" t="str" cm="1">
+        <f t="array" aca="1" ref="V15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AD15)</f>
+        <v>NA</v>
+      </c>
+      <c r="W15" t="str" cm="1">
+        <f t="array" aca="1" ref="W15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AE15)</f>
+        <v>NA</v>
+      </c>
+      <c r="X15" t="str" cm="1">
+        <f t="array" aca="1" ref="X15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AF15)</f>
+        <v>NA</v>
+      </c>
+      <c r="Y15" t="str" cm="1">
+        <f t="array" aca="1" ref="Y15" ca="1">INDIRECT("AllData!"&amp;$I15&amp;AG15)</f>
+        <v>NA</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15">
+        <v>16</v>
+      </c>
+      <c r="AB15">
+        <v>34</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15:AC21" si="0">49+3</f>
+        <v>52</v>
+      </c>
+      <c r="AD15">
+        <v>70</v>
+      </c>
+      <c r="AE15">
+        <v>88</v>
+      </c>
+      <c r="AF15">
+        <v>124</v>
+      </c>
+      <c r="AG15">
+        <v>106</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -40022,8 +42364,63 @@
       <c r="P16">
         <v>103</v>
       </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" cm="1">
+        <f t="array" aca="1" ref="S16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AA16)</f>
+        <v>1.888615748225257</v>
+      </c>
+      <c r="T16" cm="1">
+        <f t="array" aca="1" ref="T16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AB16)</f>
+        <v>2.6077486032548811</v>
+      </c>
+      <c r="U16" t="str" cm="1">
+        <f t="array" aca="1" ref="U16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AC16)</f>
+        <v>NA</v>
+      </c>
+      <c r="V16" t="str" cm="1">
+        <f t="array" aca="1" ref="V16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AD16)</f>
+        <v>NA</v>
+      </c>
+      <c r="W16" cm="1">
+        <f t="array" aca="1" ref="W16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AE16)</f>
+        <v>6.4994123665998975</v>
+      </c>
+      <c r="X16" cm="1">
+        <f t="array" aca="1" ref="X16" ca="1">INDIRECT("AllData!"&amp;$I16&amp;AF16)</f>
+        <v>2.8397686721124487</v>
+      </c>
+      <c r="Y16">
+        <v>7.5</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16">
+        <v>16</v>
+      </c>
+      <c r="AB16">
+        <v>34</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD16">
+        <v>70</v>
+      </c>
+      <c r="AE16">
+        <v>88</v>
+      </c>
+      <c r="AF16">
+        <v>124</v>
+      </c>
+      <c r="AG16">
+        <v>106</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -40079,8 +42476,64 @@
       <c r="P17">
         <v>103</v>
       </c>
+      <c r="R17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" cm="1">
+        <f t="array" aca="1" ref="S17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AA17)</f>
+        <v>3.0793140469916414</v>
+      </c>
+      <c r="T17" cm="1">
+        <f t="array" aca="1" ref="T17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AB17)</f>
+        <v>5.7428138670090068</v>
+      </c>
+      <c r="U17" cm="1">
+        <f t="array" aca="1" ref="U17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AC17)</f>
+        <v>4.8352947169743947</v>
+      </c>
+      <c r="V17" t="str" cm="1">
+        <f t="array" aca="1" ref="V17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AD17)</f>
+        <v>NA</v>
+      </c>
+      <c r="W17" cm="1">
+        <f t="array" aca="1" ref="W17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AE17)</f>
+        <v>5.2480948924348008</v>
+      </c>
+      <c r="X17" cm="1">
+        <f t="array" aca="1" ref="X17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AF17)</f>
+        <v>2.9920979262049383</v>
+      </c>
+      <c r="Y17" cm="1">
+        <f t="array" aca="1" ref="Y17" ca="1">INDIRECT("AllData!"&amp;$I17&amp;AG17)</f>
+        <v>2.2846443924602355</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17">
+        <v>34</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD17">
+        <v>70</v>
+      </c>
+      <c r="AE17">
+        <v>88</v>
+      </c>
+      <c r="AF17">
+        <v>124</v>
+      </c>
+      <c r="AG17">
+        <v>106</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -40136,8 +42589,64 @@
       <c r="P18">
         <v>103</v>
       </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" cm="1">
+        <f t="array" aca="1" ref="S18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AA18)</f>
+        <v>2.6120920734154782</v>
+      </c>
+      <c r="T18" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AB18)</f>
+        <v>3.0892303967888894</v>
+      </c>
+      <c r="U18" cm="1">
+        <f t="array" aca="1" ref="U18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AC18)</f>
+        <v>8.365153581641211</v>
+      </c>
+      <c r="V18" cm="1">
+        <f t="array" aca="1" ref="V18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AD18)</f>
+        <v>3.9492650511765408</v>
+      </c>
+      <c r="W18" cm="1">
+        <f t="array" aca="1" ref="W18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AE18)</f>
+        <v>5.4502798093308842</v>
+      </c>
+      <c r="X18" cm="1">
+        <f t="array" aca="1" ref="X18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AF18)</f>
+        <v>3.473481682692467</v>
+      </c>
+      <c r="Y18" cm="1">
+        <f t="array" aca="1" ref="Y18" ca="1">INDIRECT("AllData!"&amp;$I18&amp;AG18)</f>
+        <v>6.2113131551316156</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>34</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD18">
+        <v>70</v>
+      </c>
+      <c r="AE18">
+        <v>88</v>
+      </c>
+      <c r="AF18">
+        <v>124</v>
+      </c>
+      <c r="AG18">
+        <v>106</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -40193,8 +42702,64 @@
       <c r="P19">
         <v>103</v>
       </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AA19)</f>
+        <v>2.4680255266102726</v>
+      </c>
+      <c r="T19" cm="1">
+        <f t="array" aca="1" ref="T19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AB19)</f>
+        <v>3.5205432819381088</v>
+      </c>
+      <c r="U19" cm="1">
+        <f t="array" aca="1" ref="U19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AC19)</f>
+        <v>5.7780809482426019</v>
+      </c>
+      <c r="V19" cm="1">
+        <f t="array" aca="1" ref="V19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AD19)</f>
+        <v>2.5951964173149675</v>
+      </c>
+      <c r="W19" cm="1">
+        <f t="array" aca="1" ref="W19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AE19)</f>
+        <v>4.4832688966868535</v>
+      </c>
+      <c r="X19" cm="1">
+        <f t="array" aca="1" ref="X19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AF19)</f>
+        <v>2.0455873918700669</v>
+      </c>
+      <c r="Y19" cm="1">
+        <f t="array" aca="1" ref="Y19" ca="1">INDIRECT("AllData!"&amp;$I19&amp;AG19)</f>
+        <v>3.6470437038480341</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+      <c r="AB19">
+        <v>34</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD19">
+        <v>70</v>
+      </c>
+      <c r="AE19">
+        <v>88</v>
+      </c>
+      <c r="AF19">
+        <v>124</v>
+      </c>
+      <c r="AG19">
+        <v>106</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -40250,8 +42815,64 @@
       <c r="P20">
         <v>103</v>
       </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AA20)</f>
+        <v>3.617725267500413</v>
+      </c>
+      <c r="T20" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AB20)</f>
+        <v>2.4315530016843141</v>
+      </c>
+      <c r="U20" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AC20)</f>
+        <v>7.9232849528743206</v>
+      </c>
+      <c r="V20" cm="1">
+        <f t="array" aca="1" ref="V20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AD20)</f>
+        <v>2.6937798722241575</v>
+      </c>
+      <c r="W20" cm="1">
+        <f t="array" aca="1" ref="W20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AE20)</f>
+        <v>4.0285774301993111</v>
+      </c>
+      <c r="X20" cm="1">
+        <f t="array" aca="1" ref="X20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AF20)</f>
+        <v>3.1326027517066461</v>
+      </c>
+      <c r="Y20" cm="1">
+        <f t="array" aca="1" ref="Y20" ca="1">INDIRECT("AllData!"&amp;$I20&amp;AG20)</f>
+        <v>3.8241175452645577</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20">
+        <v>16</v>
+      </c>
+      <c r="AB20">
+        <v>34</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD20">
+        <v>70</v>
+      </c>
+      <c r="AE20">
+        <v>88</v>
+      </c>
+      <c r="AF20">
+        <v>124</v>
+      </c>
+      <c r="AG20">
+        <v>106</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -40307,8 +42928,64 @@
       <c r="P21">
         <v>103</v>
       </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" cm="1">
+        <f t="array" aca="1" ref="S21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AA21)</f>
+        <v>2.9882524621888704</v>
+      </c>
+      <c r="T21" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AB21)</f>
+        <v>3.4184832569105517</v>
+      </c>
+      <c r="U21" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AC21)</f>
+        <v>7.6882796804255555</v>
+      </c>
+      <c r="V21" cm="1">
+        <f t="array" aca="1" ref="V21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AD21)</f>
+        <v>1.8841178307101725</v>
+      </c>
+      <c r="W21" cm="1">
+        <f t="array" aca="1" ref="W21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AE21)</f>
+        <v>6.0336440988105391</v>
+      </c>
+      <c r="X21" cm="1">
+        <f t="array" aca="1" ref="X21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AF21)</f>
+        <v>5.8783163216840952</v>
+      </c>
+      <c r="Y21" cm="1">
+        <f t="array" aca="1" ref="Y21" ca="1">INDIRECT("AllData!"&amp;$I21&amp;AG21)</f>
+        <v>1.677220750063761</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21">
+        <v>16</v>
+      </c>
+      <c r="AB21">
+        <v>34</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD21">
+        <v>70</v>
+      </c>
+      <c r="AE21">
+        <v>88</v>
+      </c>
+      <c r="AF21">
+        <v>124</v>
+      </c>
+      <c r="AG21">
+        <v>106</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -40317,41 +42994,75 @@
         <v>17.798333333333332</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:H22" ca="1" si="0">AVERAGE(C14:C21)</f>
+        <f t="shared" ref="C22:H22" ca="1" si="1">AVERAGE(C14:C21)</f>
         <v>31.824259259259261</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>36.80244444444444</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>51.840277777777779</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28.903518518518521</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.077407407407406</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28.061851851851856</v>
       </c>
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <f ca="1">AVERAGE(S14:S21)</f>
+        <v>2.5631353078018333</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:Y22" ca="1" si="2">AVERAGE(T14:T21)</f>
+        <v>3.4683954012642917</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.9180187760316159</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7805897928564596</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2905462490103821</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3936424577117772</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1907232577947005</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="K24" t="s">
         <v>5</v>
       </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -40361,8 +43072,11 @@
       <c r="K25">
         <v>17.798333333333332</v>
       </c>
+      <c r="L25">
+        <v>2.5631353078018333</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -40381,8 +43095,11 @@
       <c r="K26">
         <v>23.077407407407399</v>
       </c>
+      <c r="L26">
+        <v>3.4683954012642917</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>87</v>
       </c>
@@ -40396,8 +43113,11 @@
       <c r="K27">
         <v>28.061851851851856</v>
       </c>
+      <c r="L27">
+        <v>6.9180187760316159</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>90</v>
       </c>
@@ -40411,8 +43131,11 @@
       <c r="K28">
         <v>28.903518518518521</v>
       </c>
+      <c r="L28">
+        <v>2.7805897928564596</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>190</v>
       </c>
@@ -40430,8 +43153,11 @@
       <c r="K29">
         <v>31.824259259259261</v>
       </c>
+      <c r="L29">
+        <v>5.2905462490103821</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>300</v>
       </c>
@@ -40453,8 +43179,11 @@
       <c r="K30">
         <v>36.80244444444444</v>
       </c>
+      <c r="L30">
+        <v>3.3936424577117772</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>370</v>
       </c>
@@ -40480,8 +43209,11 @@
       <c r="K31">
         <v>51.840277777777779</v>
       </c>
+      <c r="L31">
+        <v>4.9014834168234769</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>400</v>
       </c>
@@ -40502,7 +43234,7 @@
         <v>19.388888888888893</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>500</v>
       </c>
@@ -40523,7 +43255,7 @@
         <v>21.652222222222221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>600</v>
       </c>
@@ -40542,6 +43274,184 @@
       <c r="E34">
         <f>AllData!$BH$67</f>
         <v>22.164444444444449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>87</v>
+      </c>
+      <c r="B38">
+        <f>AllData!D$16</f>
+        <v>1.0858074312592365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <f>AllData!L$16</f>
+        <v>0.75746287037716087</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>190</v>
+      </c>
+      <c r="B40">
+        <f>AllData!T$16</f>
+        <v>0.36324922573902335</v>
+      </c>
+      <c r="C40">
+        <f>AllData!$T$34</f>
+        <v>1.6170652429633066</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <f>AllData!AB$16</f>
+        <v>0.67964042780805334</v>
+      </c>
+      <c r="C41">
+        <f>AllData!$AB$34</f>
+        <v>1.3095175108073411</v>
+      </c>
+      <c r="D41">
+        <f>AllData!$AB$52</f>
+        <v>2.7230104867794958</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>370</v>
+      </c>
+      <c r="B42">
+        <f>AllData!AJ$16</f>
+        <v>0.54895354994753365</v>
+      </c>
+      <c r="C42">
+        <f>AllData!$AJ$34</f>
+        <v>1.6155417048160632</v>
+      </c>
+      <c r="D42">
+        <f>AllData!$AJ$52</f>
+        <v>2.5252475126212843</v>
+      </c>
+      <c r="E42">
+        <f>AllData!$AJ$70</f>
+        <v>1.682169564712322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <f>AllData!AR$16</f>
+        <v>1.0096135124117733</v>
+      </c>
+      <c r="C43">
+        <f>AllData!$AR$34</f>
+        <v>0.86591634186629796</v>
+      </c>
+      <c r="D43">
+        <f>AllData!$AR$52</f>
+        <v>2.4324576049748572</v>
+      </c>
+      <c r="E43">
+        <f>AllData!$AR$70</f>
+        <v>2.3748497028466677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <f>AllData!AZ$16</f>
+        <v>0.80892589964168393</v>
+      </c>
+      <c r="C44">
+        <f>AllData!$AZ$34</f>
+        <v>1.5207216853995578</v>
+      </c>
+      <c r="D44">
+        <f>AllData!$AZ$52</f>
+        <v>3.1447937575901186</v>
+      </c>
+      <c r="E44">
+        <f>AllData!$AZ$70</f>
+        <v>4.3848197733138869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <f>AllData!BH$16</f>
+        <v>1.0281104566684987</v>
+      </c>
+      <c r="C45">
+        <f>AllData!$BH$34</f>
+        <v>0.86038912385294875</v>
+      </c>
+      <c r="D45">
+        <f>AllData!$BH$52</f>
+        <v>2.8064142800219471</v>
+      </c>
+      <c r="E45">
+        <f>AllData!$BH$70</f>
+        <v>3.0086047892299788</v>
       </c>
     </row>
   </sheetData>
@@ -40556,11 +43466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D443D71-9464-4216-82D9-66DDCD118107}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="90" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40575,20 +43485,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -40596,7 +43506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -40616,12 +43526,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -40638,7 +43548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -40658,12 +43568,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -40671,7 +43581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -40691,12 +43601,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>33</v>
       </c>
@@ -40704,7 +43614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>58</v>
       </c>
